--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
     <t>Adam22</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.56644645286093</v>
+        <v>0.04481866666666667</v>
       </c>
       <c r="H2">
-        <v>1.56644645286093</v>
+        <v>0.134456</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90269015534024</v>
+        <v>2.357976666666667</v>
       </c>
       <c r="N2">
-        <v>1.90269015534024</v>
+        <v>7.07393</v>
       </c>
       <c r="O2">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="P2">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="Q2">
-        <v>2.980462244726131</v>
+        <v>0.1056813702311111</v>
       </c>
       <c r="R2">
-        <v>2.980462244726131</v>
+        <v>0.9511323320799999</v>
       </c>
       <c r="S2">
-        <v>0.3741908454855937</v>
+        <v>0.01110862783231366</v>
       </c>
       <c r="T2">
-        <v>0.3741908454855937</v>
+        <v>0.01110862783231366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.56644645286093</v>
+        <v>0.04481866666666667</v>
       </c>
       <c r="H3">
-        <v>1.56644645286093</v>
+        <v>0.134456</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.63918276471039</v>
+        <v>1.653161666666667</v>
       </c>
       <c r="N3">
-        <v>1.63918276471039</v>
+        <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="P3">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="Q3">
-        <v>2.567692027371363</v>
+        <v>0.07409250168444444</v>
       </c>
       <c r="R3">
-        <v>2.567692027371363</v>
+        <v>0.66683251516</v>
       </c>
       <c r="S3">
-        <v>0.3223684018708297</v>
+        <v>0.007788184659014457</v>
       </c>
       <c r="T3">
-        <v>0.3223684018708297</v>
+        <v>0.007788184659014457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.56644645286093</v>
+        <v>0.04481866666666667</v>
       </c>
       <c r="H4">
-        <v>1.56644645286093</v>
+        <v>0.134456</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.332038377019989</v>
+        <v>0.33798</v>
       </c>
       <c r="N4">
-        <v>0.332038377019989</v>
+        <v>1.01394</v>
       </c>
       <c r="O4">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="P4">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="Q4">
-        <v>0.5201203378966619</v>
+        <v>0.01514781296</v>
       </c>
       <c r="R4">
-        <v>0.5201203378966619</v>
+        <v>0.13633031664</v>
       </c>
       <c r="S4">
-        <v>0.065300028321509</v>
+        <v>0.00159225241192606</v>
       </c>
       <c r="T4">
-        <v>0.065300028321509</v>
+        <v>0.001592252411926061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.56644645286093</v>
+        <v>0.04481866666666667</v>
       </c>
       <c r="H5">
-        <v>1.56644645286093</v>
+        <v>0.134456</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02684490863954198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.445409051011315</v>
+        <v>0.5223656666666666</v>
       </c>
       <c r="N5">
-        <v>0.445409051011315</v>
+        <v>1.567097</v>
       </c>
       <c r="O5">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="P5">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="Q5">
-        <v>0.6977094280288274</v>
+        <v>0.02341173269244444</v>
       </c>
       <c r="R5">
-        <v>0.6977094280288274</v>
+        <v>0.210705594232</v>
       </c>
       <c r="S5">
-        <v>0.08759596979943182</v>
+        <v>0.002460908907797398</v>
       </c>
       <c r="T5">
-        <v>0.08759596979943182</v>
+        <v>0.002460908907797398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04481866666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.134456</v>
+      </c>
+      <c r="I6">
+        <v>0.02684490863954198</v>
+      </c>
+      <c r="J6">
+        <v>0.02684490863954198</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.480279</v>
+      </c>
+      <c r="O6">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P6">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q6">
+        <v>0.03705426591377778</v>
+      </c>
+      <c r="R6">
+        <v>0.333488393224</v>
+      </c>
+      <c r="S6">
+        <v>0.003894934828490401</v>
+      </c>
+      <c r="T6">
+        <v>0.003894934828490401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.606609333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.819827999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="J7">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.357976666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.07393</v>
+      </c>
+      <c r="O7">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="P7">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="Q7">
+        <v>3.788347320448888</v>
+      </c>
+      <c r="R7">
+        <v>34.09512588403999</v>
+      </c>
+      <c r="S7">
+        <v>0.3982096408324262</v>
+      </c>
+      <c r="T7">
+        <v>0.3982096408324262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.606609333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.819827999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="J8">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.959485</v>
+      </c>
+      <c r="O8">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="P8">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="Q8">
+        <v>2.655984963175555</v>
+      </c>
+      <c r="R8">
+        <v>23.90386466858</v>
+      </c>
+      <c r="S8">
+        <v>0.2791821152547177</v>
+      </c>
+      <c r="T8">
+        <v>0.2791821152547177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.606609333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.819827999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="J9">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.33798</v>
+      </c>
+      <c r="N9">
+        <v>1.01394</v>
+      </c>
+      <c r="O9">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="P9">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="Q9">
+        <v>0.54300182248</v>
+      </c>
+      <c r="R9">
+        <v>4.88701640232</v>
+      </c>
+      <c r="S9">
+        <v>0.05707727998801659</v>
+      </c>
+      <c r="T9">
+        <v>0.0570772799880166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.606609333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.819827999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="J10">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5223656666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.567097</v>
+      </c>
+      <c r="O10">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="P10">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="Q10">
+        <v>0.8392375554795554</v>
+      </c>
+      <c r="R10">
+        <v>7.553137999315998</v>
+      </c>
+      <c r="S10">
+        <v>0.08821590452825694</v>
+      </c>
+      <c r="T10">
+        <v>0.08821590452825694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.606609333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.819827999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="J11">
+        <v>0.9623061991901166</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.480279</v>
+      </c>
+      <c r="O11">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P11">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q11">
+        <v>1.328279796890222</v>
+      </c>
+      <c r="R11">
+        <v>11.954518172012</v>
+      </c>
+      <c r="S11">
+        <v>0.1396212585866992</v>
+      </c>
+      <c r="T11">
+        <v>0.1396212585866992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01811266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.054338</v>
+      </c>
+      <c r="I12">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="J12">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.357976666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.07393</v>
+      </c>
+      <c r="O12">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="P12">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="Q12">
+        <v>0.04270924537111111</v>
+      </c>
+      <c r="R12">
+        <v>0.3843832083399999</v>
+      </c>
+      <c r="S12">
+        <v>0.004489354280599303</v>
+      </c>
+      <c r="T12">
+        <v>0.004489354280599303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01811266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.054338</v>
+      </c>
+      <c r="I13">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="J13">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.959485</v>
+      </c>
+      <c r="O13">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="P13">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="Q13">
+        <v>0.02994316621444444</v>
+      </c>
+      <c r="R13">
+        <v>0.26948849593</v>
+      </c>
+      <c r="S13">
+        <v>0.003147456253358181</v>
+      </c>
+      <c r="T13">
+        <v>0.003147456253358181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01811266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.054338</v>
+      </c>
+      <c r="I14">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="J14">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.33798</v>
+      </c>
+      <c r="N14">
+        <v>1.01394</v>
+      </c>
+      <c r="O14">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="P14">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="Q14">
+        <v>0.00612171908</v>
+      </c>
+      <c r="R14">
+        <v>0.05509547172</v>
+      </c>
+      <c r="S14">
+        <v>0.0006434804810438974</v>
+      </c>
+      <c r="T14">
+        <v>0.0006434804810438975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.56644645286093</v>
-      </c>
-      <c r="H6">
-        <v>1.56644645286093</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.765491796028879</v>
-      </c>
-      <c r="N6">
-        <v>0.765491796028879</v>
-      </c>
-      <c r="O6">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="P6">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="Q6">
-        <v>1.19910190858358</v>
-      </c>
-      <c r="R6">
-        <v>1.19910190858358</v>
-      </c>
-      <c r="S6">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="T6">
-        <v>0.1505447545226356</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01811266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.054338</v>
+      </c>
+      <c r="I15">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="J15">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5223656666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.567097</v>
+      </c>
+      <c r="O15">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="P15">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="Q15">
+        <v>0.009461435198444444</v>
+      </c>
+      <c r="R15">
+        <v>0.085152916786</v>
+      </c>
+      <c r="S15">
+        <v>0.0009945325476876821</v>
+      </c>
+      <c r="T15">
+        <v>0.0009945325476876821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01811266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054338</v>
+      </c>
+      <c r="I16">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="J16">
+        <v>0.01084889217034147</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.480279</v>
+      </c>
+      <c r="O16">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P16">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q16">
+        <v>0.01497482225577778</v>
+      </c>
+      <c r="R16">
+        <v>0.134773400302</v>
+      </c>
+      <c r="S16">
+        <v>0.001574068607652402</v>
+      </c>
+      <c r="T16">
+        <v>0.001574068607652402</v>
       </c>
     </row>
   </sheetData>
